--- a/energies16AFH_D7.xlsx
+++ b/energies16AFH_D7.xlsx
@@ -1,15 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royelkabetz/Git/2D_TN/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB2CB6A-2F81-7E4A-8633-EF35F0F81E66}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,6 +250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -385,14 +443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,74 +472,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.5365956457601873</v>
+        <v>-0.53659564576018726</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.5372736957883973</v>
+        <v>-0.53727369578839734</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.5363587472559173</v>
+        <v>-0.53635874725591726</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.5372826641335258</v>
+        <v>-0.53728266413352577</v>
       </c>
       <c r="C5">
-        <v>-0.5434080378027057</v>
+        <v>-0.54340803780270575</v>
       </c>
       <c r="D5">
-        <v>-0.5520110632472163</v>
+        <v>-0.55201106324721627</v>
       </c>
       <c r="E5">
-        <v>-0.5622795758030572</v>
+        <v>-0.56227957580305721</v>
       </c>
       <c r="F5">
-        <v>-0.5662663144238806</v>
+        <v>-0.56626631442388065</v>
       </c>
       <c r="G5">
-        <v>-0.5668897245235716</v>
+        <v>-0.56688972452357156</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.5370282712864751</v>
+        <v>-0.53702827128647512</v>
       </c>
       <c r="C6">
-        <v>-0.5430784625514941</v>
+        <v>-0.54307846255149406</v>
       </c>
       <c r="D6">
-        <v>-0.5518406653179845</v>
+        <v>-0.55184066531798448</v>
       </c>
       <c r="E6">
-        <v>-0.5620063285150994</v>
+        <v>-0.56200632851509935</v>
       </c>
       <c r="F6">
-        <v>-0.5660723034160169</v>
+        <v>-0.56607230341601689</v>
       </c>
       <c r="G6">
-        <v>-0.5667559292347051</v>
+        <v>-0.56675592923470508</v>
       </c>
     </row>
   </sheetData>
